--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
@@ -543,10 +543,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H2">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>1.559849092938667</v>
+        <v>5.095990383406222</v>
       </c>
       <c r="R2">
-        <v>14.038641836448</v>
+        <v>45.863913450656</v>
       </c>
       <c r="S2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="T2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H3">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>16.78223058802222</v>
+        <v>30.61040624281111</v>
       </c>
       <c r="R3">
-        <v>151.0400752922</v>
+        <v>275.4936561853</v>
       </c>
       <c r="S3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="T3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H4">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.07034123907644443</v>
+        <v>0.1614554141448889</v>
       </c>
       <c r="R4">
-        <v>0.6330711516879999</v>
+        <v>1.453098727304</v>
       </c>
       <c r="S4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="T4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H5">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>11.685255559704</v>
+        <v>4.982729873124889</v>
       </c>
       <c r="R5">
-        <v>105.167300037336</v>
+        <v>44.844568858124</v>
       </c>
       <c r="S5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="T5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H6">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.2032965961786666</v>
+        <v>0.3679334356102222</v>
       </c>
       <c r="R6">
-        <v>1.829669365608</v>
+        <v>3.311400920492</v>
       </c>
       <c r="S6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="T6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2663973333333333</v>
+        <v>0.4859026666666666</v>
       </c>
       <c r="H7">
-        <v>0.7991919999999999</v>
+        <v>1.457708</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.3266485958115555</v>
+        <v>0.4805429982857777</v>
       </c>
       <c r="R7">
-        <v>2.939837362304</v>
+        <v>4.324886984571999</v>
       </c>
       <c r="S7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="T7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
     </row>
   </sheetData>
